--- a/test/vue/lang/en-cn.xlsx
+++ b/test/vue/lang/en-cn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="162">
   <si>
     <t>d:/git/reasyTeam/b28-cli/test/vue/get/quickset.vue</t>
   </si>
@@ -22,554 +22,579 @@
     <t>一段纯文本加上一点指令%s，再加上一点纯文本</t>
   </si>
   <si>
+    <t>这是测试1%s</t>
+  </si>
+  <si>
+    <t>我就是一段纯文本而已！</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>联网方式识别</t>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一段纯文本加上一点指令%s，再加上一点纯文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this is title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this is test one %s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this is test two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I am title too </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just a pure text message.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Link Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lan set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireless Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password/Account Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d:/git/reasyTeam/b28-cli/test/vue/get/demo.vue</t>
+  </si>
+  <si>
+    <t>复选框</t>
+  </si>
+  <si>
+    <t>下拉框</t>
+  </si>
+  <si>
+    <t>单选框</t>
+  </si>
+  <si>
+    <t>文本框</t>
+  </si>
+  <si>
+    <t>文本框1</t>
+  </si>
+  <si>
+    <t>滑块</t>
+  </si>
+  <si>
+    <t>开关</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>这是内容?</t>
+  </si>
+  <si>
+    <t>d:/git/reasyTeam/b28-cli/test/vue/get/pageItem/nodeDetail.vue</t>
+  </si>
+  <si>
+    <t>联网状态</t>
+  </si>
+  <si>
+    <t>%s</t>
+  </si>
+  <si>
+    <t>连接质量</t>
+  </si>
+  <si>
+    <t>序列号</t>
+  </si>
+  <si>
+    <t>LED指示灯</t>
+  </si>
+  <si>
+    <t>设备位置</t>
+  </si>
+  <si>
+    <t>更多信息</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>软件版本</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+  </si>
+  <si>
+    <t>LAN口MAC地址</t>
+  </si>
+  <si>
+    <t>2.4GWiFi MAC地址</t>
+  </si>
+  <si>
+    <t>5G WiFi MAC地址</t>
+  </si>
+  <si>
+    <t>输入自定义</t>
+  </si>
+  <si>
+    <t>d:/git/reasyTeam/b28-cli/test/vue/get/pageItem/popSearch.vue</t>
+  </si>
+  <si>
+    <t>请按一下被添加设备的reset键1~3秒，使之变更为2分钟内可被添加状态，然后点击搜索按键。</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>手动添加</t>
+  </si>
+  <si>
+    <t>搜索中...</t>
+  </si>
+  <si>
+    <t>发现可添加的设备</t>
+  </si>
+  <si>
+    <t>SN:</t>
+  </si>
+  <si>
+    <t>MAC:</t>
+  </si>
+  <si>
+    <t>无可添加的设备！</t>
+  </si>
+  <si>
+    <t>重新搜索</t>
+  </si>
+  <si>
+    <t>添加</t>
+  </si>
+  <si>
+    <t>输入设备机身上的SN码</t>
+  </si>
+  <si>
+    <t>添加成功</t>
+  </si>
+  <si>
+    <t>删除该节点可能会降低您的网络覆盖范围，影响您的上网体验。</t>
+  </si>
+  <si>
+    <t>SN码</t>
+  </si>
+  <si>
+    <t>请选择需要添加的节点</t>
+  </si>
+  <si>
+    <t>节点数不能超过%s个</t>
+  </si>
+  <si>
+    <t>This field is required</t>
+  </si>
+  <si>
+    <t>sn对应的节点已存在</t>
+  </si>
+  <si>
+    <t>d:/git/reasyTeam/b28-cli/test/vue/get/pageItem/wanDetail.vue</t>
+  </si>
+  <si>
+    <t>联网方式</t>
+  </si>
+  <si>
+    <t>ip地址</t>
+  </si>
+  <si>
+    <t>d:/git/reasyTeam/b28-cli/test/vue/get/password.vue</t>
+  </si>
+  <si>
+    <t>旧密码</t>
+  </si>
+  <si>
+    <t>新密码</t>
+  </si>
+  <si>
+    <t>确认密码</t>
+  </si>
+  <si>
+    <t>d:/git/reasyTeam/b28-cli/test/vue/get/sysInfo.vue</t>
+  </si>
+  <si>
+    <t>下载速率</t>
+  </si>
+  <si>
+    <t>上传速率</t>
+  </si>
+  <si>
+    <t>SSID</t>
+  </si>
+  <si>
+    <t>2.4G: %s</t>
+  </si>
+  <si>
+    <t>5G: %s</t>
+  </si>
+  <si>
+    <t>WAN口IP</t>
+  </si>
+  <si>
+    <t>节点信息</t>
+  </si>
+  <si>
+    <t>CheckBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slide Bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is this content?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link Quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED Light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More Mess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ip Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mac Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lan Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4G Mac Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5G Mac Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter Custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please click the reset button of the added device for 1~3 seconds, change it to 2 minutes and add the status, then click the search button.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add manully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Searching…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Device found</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter SN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Successfully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deleting this node may reduce your network coverage and affect your online experience.</t>
+  </si>
+  <si>
+    <t>SN Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelase select a node </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Count %s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This field is required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN Exits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GateWay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alternate DNS Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Old Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter old password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter new password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm old and new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter new password again</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wan Ip Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net Mess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node Mess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是内容：%s%s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this is content: %s%s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>我是标题</t>
-  </si>
-  <si>
-    <t>这是测试1%s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这是测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联网设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽带账号或者密码错误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我也是标题</t>
-  </si>
-  <si>
-    <t>我就是一段纯文本而已！</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>联网方式识别</t>
-  </si>
-  <si>
-    <t>联网设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无线设置</t>
-  </si>
-  <si>
-    <t>配置完成</t>
-  </si>
-  <si>
-    <t>宽带账号或者密码错误。</t>
-  </si>
-  <si>
-    <t>CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一段纯文本加上一点指令%s，再加上一点纯文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>this is title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>this is test one %s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>this is test two</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">I am title too </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Just a pure text message.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check Link Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lan set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wireless Set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Completed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password/Account Error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d:/git/reasyTeam/b28-cli/test/vue/get/demo.vue</t>
-  </si>
-  <si>
-    <t>复选框</t>
-  </si>
-  <si>
-    <t>下拉框</t>
-  </si>
-  <si>
-    <t>单选框</t>
-  </si>
-  <si>
-    <t>文本框</t>
-  </si>
-  <si>
-    <t>文本框1</t>
-  </si>
-  <si>
-    <t>滑块</t>
-  </si>
-  <si>
-    <t>开关</t>
-  </si>
-  <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>这是内容?</t>
-  </si>
-  <si>
-    <t>d:/git/reasyTeam/b28-cli/test/vue/get/pageItem/nodeDetail.vue</t>
-  </si>
-  <si>
-    <t>联网状态</t>
-  </si>
-  <si>
-    <t>%s</t>
-  </si>
-  <si>
-    <t>连接质量</t>
-  </si>
-  <si>
-    <t>序列号</t>
-  </si>
-  <si>
-    <t>LED指示灯</t>
-  </si>
-  <si>
-    <t>设备位置</t>
-  </si>
-  <si>
-    <t>更多信息</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>软件版本</t>
-  </si>
-  <si>
-    <t>IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WAN口MAC地址</t>
-  </si>
-  <si>
-    <t>LAN口MAC地址</t>
-  </si>
-  <si>
-    <t>2.4GWiFi MAC地址</t>
-  </si>
-  <si>
-    <t>5G WiFi MAC地址</t>
-  </si>
-  <si>
-    <t>输入自定义</t>
-  </si>
-  <si>
-    <t>d:/git/reasyTeam/b28-cli/test/vue/get/pageItem/popSearch.vue</t>
-  </si>
-  <si>
-    <t>请按一下被添加设备的reset键1~3秒，使之变更为2分钟内可被添加状态，然后点击搜索按键。</t>
-  </si>
-  <si>
-    <t>搜索</t>
-  </si>
-  <si>
-    <t>手动添加</t>
-  </si>
-  <si>
-    <t>搜索中...</t>
-  </si>
-  <si>
-    <t>发现可添加的设备</t>
-  </si>
-  <si>
-    <t>SN:</t>
-  </si>
-  <si>
-    <t>MAC:</t>
-  </si>
-  <si>
-    <t>无可添加的设备！</t>
-  </si>
-  <si>
-    <t>重新搜索</t>
-  </si>
-  <si>
-    <t>添加</t>
-  </si>
-  <si>
-    <t>输入设备机身上的SN码</t>
-  </si>
-  <si>
-    <t>添加成功</t>
-  </si>
-  <si>
-    <t>删除该节点可能会降低您的网络覆盖范围，影响您的上网体验。</t>
-  </si>
-  <si>
-    <t>SN码</t>
-  </si>
-  <si>
-    <t>请选择需要添加的节点</t>
-  </si>
-  <si>
-    <t>节点数不能超过%s个</t>
-  </si>
-  <si>
-    <t>This field is required</t>
-  </si>
-  <si>
-    <t>sn对应的节点已存在</t>
-  </si>
-  <si>
-    <t>d:/git/reasyTeam/b28-cli/test/vue/get/pageItem/wanDetail.vue</t>
-  </si>
-  <si>
-    <t>联网方式</t>
-  </si>
-  <si>
-    <t>ip地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入旧密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请再次输入新密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>子网掩码</t>
-  </si>
-  <si>
-    <t>默认网关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新密码与确认密码需要保持一致。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联网信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首选DNS服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备选DNS服务器</t>
-  </si>
-  <si>
-    <t>d:/git/reasyTeam/b28-cli/test/vue/get/password.vue</t>
-  </si>
-  <si>
-    <t>旧密码</t>
-  </si>
-  <si>
-    <t>新密码</t>
-  </si>
-  <si>
-    <t>确认密码</t>
-  </si>
-  <si>
-    <t>请输入旧密码</t>
-  </si>
-  <si>
-    <t>请输入新密码</t>
-  </si>
-  <si>
-    <t>新密码与确认密码需要保持一致。</t>
-  </si>
-  <si>
-    <t>请再次输入新密码</t>
-  </si>
-  <si>
-    <t>d:/git/reasyTeam/b28-cli/test/vue/get/sysInfo.vue</t>
-  </si>
-  <si>
-    <t>下载速率</t>
-  </si>
-  <si>
-    <t>上传速率</t>
-  </si>
-  <si>
-    <t>SSID</t>
-  </si>
-  <si>
-    <t>2.4G: %s</t>
-  </si>
-  <si>
-    <t>5G: %s</t>
-  </si>
-  <si>
-    <t>WAN口IP</t>
-  </si>
-  <si>
-    <t>联网信息</t>
-  </si>
-  <si>
-    <t>节点信息</t>
-  </si>
-  <si>
-    <t>CheckBox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Radio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slide Bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is this content?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link Quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED Light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device Location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>More Mess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ip Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mac Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lan Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4G Mac Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5G Mac Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enter Custom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please click the reset button of the added device for 1~3 seconds, change it to 2 minutes and add the status, then click the search button.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add manully</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Searching…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Device found</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Research</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enter SN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add Successfully</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deleting this node may reduce your network coverage and affect your online experience.</t>
-  </si>
-  <si>
-    <t>SN Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Pelase select a node </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max Count %s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This field is required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN Exits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GateWay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DNS Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alternate DNS Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Old Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confirm Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please enter old password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please enter new password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confirm old and new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enter new password again</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Download Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wan Ip Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Net Mess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node Mess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是内容：%s%s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>this is content: %s%s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定要关闭SNMP吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comfirm to close SNMP?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,9 +644,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -958,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -972,10 +1000,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -988,7 +1016,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -996,646 +1024,654 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
